--- a/2019_Lane_BINNED-NRCS.xlsx
+++ b/2019_Lane_BINNED-NRCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Thesis-related/2019_Field/2019_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A30BEA73-9E97-493D-BB88-BE59D7C1DDB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{A30BEA73-9E97-493D-BB88-BE59D7C1DDB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BFE2099F-012A-4670-9984-A26513BC3B73}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>LAPA4</t>
-  </si>
-  <si>
-    <t>Lycopus_sp</t>
   </si>
   <si>
     <t>LYSA2</t>
@@ -180,11 +177,14 @@
   <si>
     <t>R</t>
   </si>
+  <si>
+    <t>LYEU</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1018,11 +1018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1098,73 +1098,73 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
@@ -1172,7 +1172,7 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1452,7 +1452,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1592,7 +1592,7 @@
         <v>2019</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1732,7 +1732,7 @@
         <v>2019</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1872,7 +1872,7 @@
         <v>2019</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2012,7 +2012,7 @@
         <v>2019</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2152,7 +2152,7 @@
         <v>2019</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2292,7 +2292,7 @@
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2432,7 +2432,7 @@
         <v>2019</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -2572,7 +2572,7 @@
         <v>2019</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2712,7 +2712,7 @@
         <v>2019</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2852,7 +2852,7 @@
         <v>2019</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -2992,7 +2992,7 @@
         <v>2019</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3132,7 +3132,7 @@
         <v>2019</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3272,7 +3272,7 @@
         <v>2019</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3412,7 +3412,7 @@
         <v>2019</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3552,7 +3552,7 @@
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3692,7 +3692,7 @@
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3832,7 +3832,7 @@
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3972,7 +3972,7 @@
         <v>2019</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -4112,7 +4112,7 @@
         <v>2019</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -4252,7 +4252,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -4392,7 +4392,7 @@
         <v>2019</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -4532,7 +4532,7 @@
         <v>2019</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -4672,7 +4672,7 @@
         <v>2019</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -4812,7 +4812,7 @@
         <v>2019</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -4952,7 +4952,7 @@
         <v>2019</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -5092,7 +5092,7 @@
         <v>2019</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -5232,7 +5232,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -5372,7 +5372,7 @@
         <v>2019</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -5512,7 +5512,7 @@
         <v>2019</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -5652,7 +5652,7 @@
         <v>2019</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -5792,7 +5792,7 @@
         <v>2019</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -5932,7 +5932,7 @@
         <v>2019</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -6072,7 +6072,7 @@
         <v>2019</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -6212,7 +6212,7 @@
         <v>2019</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -6352,7 +6352,7 @@
         <v>2019</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -6492,7 +6492,7 @@
         <v>2019</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -6632,7 +6632,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -6772,7 +6772,7 @@
         <v>2019</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -6912,7 +6912,7 @@
         <v>2019</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -7052,7 +7052,7 @@
         <v>2019</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -7192,7 +7192,7 @@
         <v>2019</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -7332,7 +7332,7 @@
         <v>2019</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -7472,7 +7472,7 @@
         <v>2019</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -7612,7 +7612,7 @@
         <v>2019</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -7752,7 +7752,7 @@
         <v>2019</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -7892,7 +7892,7 @@
         <v>2019</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -8032,7 +8032,7 @@
         <v>2019</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -8172,7 +8172,7 @@
         <v>2019</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -8312,7 +8312,7 @@
         <v>2019</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -8452,7 +8452,7 @@
         <v>2019</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -8592,7 +8592,7 @@
         <v>2019</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -8732,7 +8732,7 @@
         <v>2019</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -8872,7 +8872,7 @@
         <v>2019</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -9012,7 +9012,7 @@
         <v>2019</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -9152,7 +9152,7 @@
         <v>2019</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -9292,7 +9292,7 @@
         <v>2019</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -9432,7 +9432,7 @@
         <v>2019</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -9572,7 +9572,7 @@
         <v>2019</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -9712,7 +9712,7 @@
         <v>2019</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -9852,7 +9852,7 @@
         <v>2019</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -9992,7 +9992,7 @@
         <v>2019</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -10132,7 +10132,7 @@
         <v>2019</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -10272,7 +10272,7 @@
         <v>2019</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -10412,7 +10412,7 @@
         <v>2019</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -10552,7 +10552,7 @@
         <v>2019</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -10692,7 +10692,7 @@
         <v>2019</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -10832,7 +10832,7 @@
         <v>2019</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -10972,7 +10972,7 @@
         <v>2019</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -11112,7 +11112,7 @@
         <v>2019</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -11252,7 +11252,7 @@
         <v>2019</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -11392,7 +11392,7 @@
         <v>2019</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -11533,6 +11533,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -11761,15 +11770,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11777,6 +11777,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B61AD4-9105-43F9-9F92-B7C504632ECD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2937F69-A4BB-46FB-B587-761A12B39627}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11795,27 +11803,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7B61AD4-9105-43F9-9F92-B7C504632ECD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837C8AF0-44F2-46B4-89A1-07AE3B365A6C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>